--- a/data/lotek fwfs.xlsx
+++ b/data/lotek fwfs.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knebiolo\Desktop\Nuyakuk BIOTAS\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kleinschmidtgroup-my.sharepoint.com/personal/kevin_nebiolo_kleinschmidtgroup_com/Documents/Software/biotas/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C851D10-707D-4FDF-9DDE-2580DA08C881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{0C851D10-707D-4FDF-9DDE-2580DA08C881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECCD9A0A-4286-4281-B7BC-AD838A5FE1B8}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5055" windowWidth="29040" windowHeight="15840" xr2:uid="{CAA84BEB-E981-4C85-B716-DA98EECC4265}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{CAA84BEB-E981-4C85-B716-DA98EECC4265}"/>
   </bookViews>
   <sheets>
     <sheet name="srx600 primary" sheetId="2" r:id="rId1"/>
     <sheet name="srx600 alternate" sheetId="1" r:id="rId2"/>
+    <sheet name="srx800 alternate" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="31">
   <si>
     <t>:</t>
   </si>
@@ -127,15 +128,25 @@
   </si>
   <si>
     <t>r</t>
+  </si>
+  <si>
+    <t>l</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -171,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -180,7 +191,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,7 +516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BBCE7B-C88D-42B7-90EB-45E7326B53B9}">
   <dimension ref="A1:AX3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="AU3" sqref="AU3"/>
     </sheetView>
   </sheetViews>
@@ -724,32 +743,32 @@
         <v>15</v>
       </c>
       <c r="AI2" s="3"/>
-      <c r="AJ2" s="4" t="s">
+      <c r="AJ2" t="s">
         <v>16</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AK2" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AL2" t="s">
         <v>17</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AM2" t="s">
         <v>18</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AN2" t="s">
         <v>23</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="AO2" t="s">
         <v>23</v>
       </c>
-      <c r="AP2" s="4" t="s">
+      <c r="AP2" t="s">
         <v>16</v>
       </c>
       <c r="AQ2" s="3"/>
-      <c r="AR2" s="4" t="s">
+      <c r="AR2" t="s">
         <v>26</v>
       </c>
-      <c r="AS2" s="4" t="s">
+      <c r="AS2" t="s">
         <v>27</v>
       </c>
       <c r="AT2" t="s">
@@ -850,7 +869,7 @@
   <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1"/>
+      <selection sqref="A1:AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,4 +1124,404 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE100EB4-E4D8-481F-9C3B-EA4F699A395C}">
+  <dimension ref="A1:BB3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection sqref="A1:BA1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:54" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="4">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4">
+        <v>19</v>
+      </c>
+      <c r="U1" s="4">
+        <v>20</v>
+      </c>
+      <c r="V1" s="4">
+        <v>21</v>
+      </c>
+      <c r="W1" s="4">
+        <v>22</v>
+      </c>
+      <c r="X1" s="4">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="4">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="4">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="4">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="4">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="4">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="4">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="4">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="4">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="4">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="4">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="4">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="4">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="4">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="4">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="4">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="4">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="4">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="4">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="4">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="4">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="4">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="4">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="4">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="4">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="4">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="4">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="4">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="4">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="4">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AT2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="BA2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB2" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="4">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>8</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>5</v>
+      </c>
+      <c r="K3" s="4">
+        <v>8</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>5</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="5">
+        <v>0</v>
+      </c>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4">
+        <v>9</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>9</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>9</v>
+      </c>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="6"/>
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="4">
+        <v>6</v>
+      </c>
+      <c r="BB3" s="5">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/lotek fwfs.xlsx
+++ b/data/lotek fwfs.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kleinschmidtgroup-my.sharepoint.com/personal/kevin_nebiolo_kleinschmidtgroup_com/Documents/Software/biotas/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{0C851D10-707D-4FDF-9DDE-2580DA08C881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECCD9A0A-4286-4281-B7BC-AD838A5FE1B8}"/>
+  <xr:revisionPtr revIDLastSave="157" documentId="13_ncr:1_{0C851D10-707D-4FDF-9DDE-2580DA08C881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D94A0B2-AAFA-458A-AD09-56ADCCD91241}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{CAA84BEB-E981-4C85-B716-DA98EECC4265}"/>
+    <workbookView xWindow="38280" yWindow="5055" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{CAA84BEB-E981-4C85-B716-DA98EECC4265}"/>
   </bookViews>
   <sheets>
     <sheet name="srx600 primary" sheetId="2" r:id="rId1"/>
     <sheet name="srx600 alternate" sheetId="1" r:id="rId2"/>
     <sheet name="srx800 alternate" sheetId="3" r:id="rId3"/>
+    <sheet name="srx1200" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="42">
   <si>
     <t>:</t>
   </si>
@@ -131,6 +132,39 @@
   </si>
   <si>
     <t>l</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
 </sst>
 </file>
@@ -182,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -195,9 +229,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1130,7 +1161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE100EB4-E4D8-481F-9C3B-EA4F699A395C}">
   <dimension ref="A1:BB3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection sqref="A1:BA1"/>
     </sheetView>
   </sheetViews>
@@ -1372,21 +1403,21 @@
       <c r="AE2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6" t="s">
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AO2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AP2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="AQ2" s="4" t="s">
@@ -1401,9 +1432,9 @@
       <c r="AT2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AU2" s="6"/>
-      <c r="AV2" s="6"/>
-      <c r="AW2" s="6"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
       <c r="AX2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1486,17 +1517,17 @@
       <c r="AE3" s="5">
         <v>9</v>
       </c>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="6"/>
-      <c r="AO3" s="6"/>
-      <c r="AP3" s="6"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
       <c r="AQ3" s="4"/>
       <c r="AR3" s="4"/>
       <c r="AS3" s="4" t="s">
@@ -1505,9 +1536,9 @@
       <c r="AT3" s="5">
         <v>0</v>
       </c>
-      <c r="AU3" s="6"/>
-      <c r="AV3" s="6"/>
-      <c r="AW3" s="6"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
       <c r="AX3" s="4"/>
       <c r="AY3" s="4"/>
       <c r="AZ3" s="4">
@@ -1524,4 +1555,504 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A22CC8-FF83-41D9-BC8A-86773DC18E2F}">
+  <dimension ref="A1:CU23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="BA1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="AT4" sqref="AT4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="99" width="3" bestFit="1" customWidth="1"/>
+    <col min="100" max="106" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1">
+        <v>32</v>
+      </c>
+      <c r="AH1">
+        <v>33</v>
+      </c>
+      <c r="AI1">
+        <v>34</v>
+      </c>
+      <c r="AJ1">
+        <v>35</v>
+      </c>
+      <c r="AK1">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="3">
+        <v>37</v>
+      </c>
+      <c r="AM1">
+        <v>38</v>
+      </c>
+      <c r="AN1">
+        <v>39</v>
+      </c>
+      <c r="AO1">
+        <v>40</v>
+      </c>
+      <c r="AP1">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="3">
+        <v>42</v>
+      </c>
+      <c r="AR1">
+        <v>43</v>
+      </c>
+      <c r="AS1">
+        <v>44</v>
+      </c>
+      <c r="AT1">
+        <v>45</v>
+      </c>
+      <c r="AU1">
+        <v>46</v>
+      </c>
+      <c r="AV1">
+        <v>47</v>
+      </c>
+      <c r="AW1">
+        <v>48</v>
+      </c>
+      <c r="AX1">
+        <v>49</v>
+      </c>
+      <c r="AY1">
+        <v>50</v>
+      </c>
+      <c r="AZ1">
+        <v>51</v>
+      </c>
+      <c r="BA1">
+        <v>52</v>
+      </c>
+      <c r="BB1">
+        <v>53</v>
+      </c>
+      <c r="BC1">
+        <v>54</v>
+      </c>
+      <c r="BD1">
+        <v>55</v>
+      </c>
+      <c r="BE1">
+        <v>56</v>
+      </c>
+      <c r="BF1">
+        <v>57</v>
+      </c>
+      <c r="BG1">
+        <v>58</v>
+      </c>
+      <c r="BH1">
+        <v>59</v>
+      </c>
+      <c r="BI1">
+        <v>60</v>
+      </c>
+      <c r="BJ1">
+        <v>61</v>
+      </c>
+      <c r="BK1">
+        <v>62</v>
+      </c>
+      <c r="BL1">
+        <v>63</v>
+      </c>
+      <c r="BM1">
+        <v>64</v>
+      </c>
+      <c r="BN1">
+        <v>65</v>
+      </c>
+      <c r="BO1">
+        <v>66</v>
+      </c>
+      <c r="BP1">
+        <v>67</v>
+      </c>
+      <c r="BQ1">
+        <v>68</v>
+      </c>
+      <c r="BR1">
+        <v>69</v>
+      </c>
+      <c r="BS1">
+        <v>70</v>
+      </c>
+      <c r="BT1">
+        <v>71</v>
+      </c>
+      <c r="BU1">
+        <v>72</v>
+      </c>
+      <c r="BV1">
+        <v>73</v>
+      </c>
+      <c r="BW1">
+        <v>74</v>
+      </c>
+      <c r="BX1">
+        <v>75</v>
+      </c>
+      <c r="BY1">
+        <v>76</v>
+      </c>
+      <c r="BZ1">
+        <v>77</v>
+      </c>
+      <c r="CA1">
+        <v>78</v>
+      </c>
+      <c r="CB1">
+        <v>79</v>
+      </c>
+      <c r="CC1">
+        <v>80</v>
+      </c>
+      <c r="CD1">
+        <v>81</v>
+      </c>
+      <c r="CE1">
+        <v>82</v>
+      </c>
+      <c r="CF1">
+        <v>83</v>
+      </c>
+      <c r="CG1">
+        <v>84</v>
+      </c>
+      <c r="CH1">
+        <v>85</v>
+      </c>
+      <c r="CI1">
+        <v>86</v>
+      </c>
+      <c r="CJ1">
+        <v>87</v>
+      </c>
+      <c r="CK1">
+        <v>88</v>
+      </c>
+      <c r="CL1">
+        <v>89</v>
+      </c>
+      <c r="CM1">
+        <v>90</v>
+      </c>
+      <c r="CN1">
+        <v>91</v>
+      </c>
+      <c r="CO1">
+        <v>92</v>
+      </c>
+      <c r="CP1">
+        <v>93</v>
+      </c>
+      <c r="CQ1">
+        <v>94</v>
+      </c>
+      <c r="CR1">
+        <v>95</v>
+      </c>
+      <c r="CS1">
+        <v>96</v>
+      </c>
+      <c r="CT1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="3"/>
+      <c r="U2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF2" s="3"/>
+      <c r="AG2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>18</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>38</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>18</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>40</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>18</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>17</v>
+      </c>
+      <c r="BT2" s="3"/>
+      <c r="BW2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>17</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>18</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>23</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>23</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>16</v>
+      </c>
+      <c r="CE2" s="3"/>
+      <c r="CI2" t="s">
+        <v>41</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>16</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>19</v>
+      </c>
+      <c r="CL2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>34</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>34</v>
+      </c>
+      <c r="CT2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="99:99" x14ac:dyDescent="0.25">
+      <c r="CU23" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/lotek fwfs.xlsx
+++ b/data/lotek fwfs.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kleinschmidtgroup-my.sharepoint.com/personal/kevin_nebiolo_kleinschmidtgroup_com/Documents/Software/biotas/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kleinschmidtgroup-my.sharepoint.com/personal/kevin_nebiolo_kleinschmidtgroup_com/Documents/Software/mast/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="157" documentId="13_ncr:1_{0C851D10-707D-4FDF-9DDE-2580DA08C881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D94A0B2-AAFA-458A-AD09-56ADCCD91241}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="13_ncr:1_{0C851D10-707D-4FDF-9DDE-2580DA08C881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F16C005-1695-4489-A853-84D913BBE908}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5055" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{CAA84BEB-E981-4C85-B716-DA98EECC4265}"/>
+    <workbookView xWindow="4290" yWindow="5745" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{CAA84BEB-E981-4C85-B716-DA98EECC4265}"/>
   </bookViews>
   <sheets>
     <sheet name="srx600 primary" sheetId="2" r:id="rId1"/>
     <sheet name="srx600 alternate" sheetId="1" r:id="rId2"/>
     <sheet name="srx800 alternate" sheetId="3" r:id="rId3"/>
     <sheet name="srx1200" sheetId="4" r:id="rId4"/>
+    <sheet name="srx1200 primary" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="42">
   <si>
     <t>:</t>
   </si>
@@ -249,9 +250,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -289,7 +290,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -395,7 +396,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -537,7 +538,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1561,7 +1562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A22CC8-FF83-41D9-BC8A-86773DC18E2F}">
   <dimension ref="A1:CU23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AT4" sqref="AT4"/>
     </sheetView>
   </sheetViews>
@@ -2055,4 +2056,504 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A891F97-6585-449A-840F-B661FADBC6AE}">
+  <dimension ref="A1:CU23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="8" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="98" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="3" bestFit="1" customWidth="1"/>
+    <col min="100" max="106" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1">
+        <v>32</v>
+      </c>
+      <c r="AH1">
+        <v>33</v>
+      </c>
+      <c r="AI1">
+        <v>34</v>
+      </c>
+      <c r="AJ1">
+        <v>35</v>
+      </c>
+      <c r="AK1">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="3">
+        <v>37</v>
+      </c>
+      <c r="AM1">
+        <v>38</v>
+      </c>
+      <c r="AN1">
+        <v>39</v>
+      </c>
+      <c r="AO1">
+        <v>40</v>
+      </c>
+      <c r="AP1">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="3">
+        <v>42</v>
+      </c>
+      <c r="AR1">
+        <v>43</v>
+      </c>
+      <c r="AS1">
+        <v>44</v>
+      </c>
+      <c r="AT1">
+        <v>45</v>
+      </c>
+      <c r="AU1">
+        <v>46</v>
+      </c>
+      <c r="AV1">
+        <v>47</v>
+      </c>
+      <c r="AW1">
+        <v>48</v>
+      </c>
+      <c r="AX1">
+        <v>49</v>
+      </c>
+      <c r="AY1">
+        <v>50</v>
+      </c>
+      <c r="AZ1">
+        <v>51</v>
+      </c>
+      <c r="BA1">
+        <v>52</v>
+      </c>
+      <c r="BB1">
+        <v>53</v>
+      </c>
+      <c r="BC1">
+        <v>54</v>
+      </c>
+      <c r="BD1">
+        <v>55</v>
+      </c>
+      <c r="BE1">
+        <v>56</v>
+      </c>
+      <c r="BF1">
+        <v>57</v>
+      </c>
+      <c r="BG1">
+        <v>58</v>
+      </c>
+      <c r="BH1">
+        <v>59</v>
+      </c>
+      <c r="BI1">
+        <v>60</v>
+      </c>
+      <c r="BJ1">
+        <v>61</v>
+      </c>
+      <c r="BK1">
+        <v>62</v>
+      </c>
+      <c r="BL1">
+        <v>63</v>
+      </c>
+      <c r="BM1">
+        <v>64</v>
+      </c>
+      <c r="BN1">
+        <v>65</v>
+      </c>
+      <c r="BO1">
+        <v>66</v>
+      </c>
+      <c r="BP1">
+        <v>67</v>
+      </c>
+      <c r="BQ1">
+        <v>68</v>
+      </c>
+      <c r="BR1">
+        <v>69</v>
+      </c>
+      <c r="BS1">
+        <v>70</v>
+      </c>
+      <c r="BT1">
+        <v>71</v>
+      </c>
+      <c r="BU1">
+        <v>72</v>
+      </c>
+      <c r="BV1">
+        <v>73</v>
+      </c>
+      <c r="BW1">
+        <v>74</v>
+      </c>
+      <c r="BX1">
+        <v>75</v>
+      </c>
+      <c r="BY1">
+        <v>76</v>
+      </c>
+      <c r="BZ1">
+        <v>77</v>
+      </c>
+      <c r="CA1">
+        <v>78</v>
+      </c>
+      <c r="CB1">
+        <v>79</v>
+      </c>
+      <c r="CC1">
+        <v>80</v>
+      </c>
+      <c r="CD1">
+        <v>81</v>
+      </c>
+      <c r="CE1">
+        <v>82</v>
+      </c>
+      <c r="CF1">
+        <v>83</v>
+      </c>
+      <c r="CG1">
+        <v>84</v>
+      </c>
+      <c r="CH1">
+        <v>85</v>
+      </c>
+      <c r="CI1">
+        <v>86</v>
+      </c>
+      <c r="CJ1">
+        <v>87</v>
+      </c>
+      <c r="CK1">
+        <v>88</v>
+      </c>
+      <c r="CL1">
+        <v>89</v>
+      </c>
+      <c r="CM1">
+        <v>90</v>
+      </c>
+      <c r="CN1">
+        <v>91</v>
+      </c>
+      <c r="CO1">
+        <v>92</v>
+      </c>
+      <c r="CP1">
+        <v>93</v>
+      </c>
+      <c r="CQ1">
+        <v>94</v>
+      </c>
+      <c r="CR1">
+        <v>95</v>
+      </c>
+      <c r="CS1">
+        <v>96</v>
+      </c>
+      <c r="CT1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="3"/>
+      <c r="U2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF2" s="3"/>
+      <c r="AG2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>18</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>38</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>18</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>40</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>18</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>17</v>
+      </c>
+      <c r="BT2" s="3"/>
+      <c r="BW2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>17</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>18</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>23</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>23</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>16</v>
+      </c>
+      <c r="CE2" s="3"/>
+      <c r="CI2" t="s">
+        <v>41</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>16</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>19</v>
+      </c>
+      <c r="CL2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>34</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>34</v>
+      </c>
+      <c r="CT2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="99:99" x14ac:dyDescent="0.25">
+      <c r="CU23" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>